--- a/Schiffsbuchung_GUI/Material/Aufgabe 2 Reiseportal/Schiffreisen.xlsx
+++ b/Schiffsbuchung_GUI/Material/Aufgabe 2 Reiseportal/Schiffreisen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lehre\HS Worms\GUI-Programmierung\Praktikumsaufgaben\Aufgabe 2 Reiseportal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\OneDrive\Dokumente\Github\Schiffsbuchung_GUI\Schiffsbuchung_GUI\Material\Aufgabe 2 Reiseportal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA232DD-7784-45DB-AAB5-ADB75F5DA6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D9AE3C-DBAD-4191-8570-84E16A8A4811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>Reisenummer</t>
   </si>
@@ -243,9 +243,6 @@
     <t>E</t>
   </si>
   <si>
-    <t xml:space="preserve">Kristiansand, Haugesund, Bergen,Trondheim, Tromsö, Aberdeen </t>
-  </si>
-  <si>
     <t>2120</t>
   </si>
   <si>
@@ -348,18 +345,12 @@
     <t>990</t>
   </si>
   <si>
-    <t>Danzig, Riga, Tallin Sankt_Petersburg, Helsinki, Stockholm, Kopenhagen</t>
-  </si>
-  <si>
     <t>Danzig, Riga, Tallin, Sankt_Petersburg, Helsinki, Stockholm, Kopenhagen</t>
   </si>
   <si>
     <t>Ystad, Visby, Stockholm, Helsinki, Tallin</t>
   </si>
   <si>
-    <t>Stralsund, Danzig, Kaliningrad, Kleipeda, Riga, Tallin, St.Petersburg, Helsinki, Stockholm, Kopenhagen</t>
-  </si>
-  <si>
     <t>Bergen, Trondheim, Aberdeen, Edinburgh, Den_Haag</t>
   </si>
   <si>
@@ -367,6 +358,12 @@
   </si>
   <si>
     <t>Göteborg, Kristiansand, Bergen, Trondheim, Torshavn, Edinburgh</t>
+  </si>
+  <si>
+    <t>Stralsund, Danzig, Kaliningrad, Kleipeda, Riga, Tallin, Sankt_Petersburg, Helsinki, Stockholm, Kopenhagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristiansand, Haugesund, Bergen, Trondheim, Tromsö, Aberdeen </t>
   </si>
 </sst>
 </file>
@@ -714,23 +711,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -756,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -782,7 +779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -793,7 +790,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>34</v>
@@ -808,7 +805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
@@ -831,10 +828,10 @@
         <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -845,7 +842,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>46</v>
@@ -860,7 +857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -871,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>50</v>
@@ -886,7 +883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -897,7 +894,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>34</v>
@@ -912,7 +909,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -923,7 +920,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>50</v>
@@ -938,7 +935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
@@ -949,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>34</v>
@@ -964,7 +961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
@@ -975,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>64</v>
@@ -990,7 +987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1001,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>34</v>
@@ -1016,7 +1013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1027,22 +1024,22 @@
         <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1053,22 +1050,22 @@
         <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>71</v>
@@ -1088,13 +1085,13 @@
         <v>51</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1105,163 +1102,163 @@
         <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="J20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>43</v>
@@ -1270,39 +1267,39 @@
         <v>51</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" ht="31.2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="J25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1314,7 +1311,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
@@ -1326,7 +1323,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1335,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
@@ -1350,7 +1347,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1360,7 +1357,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1370,7 +1367,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1380,7 +1377,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1390,7 +1387,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1400,7 +1397,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1410,7 +1407,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1420,7 +1417,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1430,7 +1427,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1440,7 +1437,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1450,7 +1447,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1460,7 +1457,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1470,7 +1467,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1480,7 +1477,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1490,7 +1487,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1500,7 +1497,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1510,7 +1507,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -1520,7 +1517,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1530,7 +1527,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1540,7 +1537,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -1550,7 +1547,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -1560,7 +1557,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1570,7 +1567,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1580,7 +1577,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1590,7 +1587,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1600,7 +1597,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1610,7 +1607,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1620,7 +1617,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1630,7 +1627,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1640,7 +1637,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1650,7 +1647,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1660,7 +1657,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1670,7 +1667,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1680,7 +1677,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1690,7 +1687,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1700,7 +1697,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1710,7 +1707,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1720,7 +1717,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1730,7 +1727,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1740,7 +1737,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1750,7 +1747,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1760,7 +1757,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1770,7 +1767,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1780,7 +1777,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1790,7 +1787,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1800,7 +1797,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1810,7 +1807,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1820,7 +1817,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -1830,7 +1827,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -1840,7 +1837,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -1850,7 +1847,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -1860,7 +1857,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -1870,7 +1867,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -1880,7 +1877,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -1890,7 +1887,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -1900,7 +1897,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -1910,7 +1907,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -1920,7 +1917,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
